--- a/KC 2025-26 Enrolments KPI as of June 02, 2025.xlsx
+++ b/KC 2025-26 Enrolments KPI as of June 02, 2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="874" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="874" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_AutomatedEnrolmentsKPIUpdateasofNovember12023.xlsxTable1" hidden="1">'[1]Hidden Data'!$A$1:$AD$999999</definedName>
-    <definedName name="_xlcn.WorksheetConnection_HiddenDataA1AC3945" hidden="1">'[1]Hidden Data'!$A$1:$AD$999999</definedName>
+    <definedName name="_xlcn.WorksheetConnection_AutomatedEnrolmentsKPIUpdateasofNovember12023.xlsxTable11" hidden="1">'[1]Hidden Data'!$A$1:$AD$999999</definedName>
+    <definedName name="_xlcn.WorksheetConnection_HiddenDataA1AC39451" hidden="1">'[1]Hidden Data'!$A$1:$AD$999999</definedName>
     <definedName name="demo">#REF!</definedName>
     <definedName name="HD">#REF!</definedName>
     <definedName name="HD" localSheetId="0">#REF!</definedName>
@@ -1363,30 +1363,30 @@
     <xf numFmtId="165" fontId="12" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,15 +1402,24 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1423,48 +1432,159 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -1479,126 +1599,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
@@ -2977,25 +2977,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="180" t="n"/>
+      <c r="A1" s="179" t="n"/>
     </row>
     <row r="2"/>
     <row r="3" ht="33.75" customHeight="1">
-      <c r="A3" s="180" t="n"/>
-      <c r="B3" s="182" t="inlineStr">
+      <c r="A3" s="179" t="n"/>
+      <c r="B3" s="180" t="inlineStr">
         <is>
           <t xml:space="preserve"> Enrolments Update (2025-26)</t>
         </is>
       </c>
-      <c r="L3" s="180" t="n"/>
+      <c r="L3" s="179" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="B4" s="180" t="n"/>
+      <c r="B4" s="179" t="n"/>
     </row>
     <row r="5"/>
     <row r="6"/>
     <row r="7" ht="15" customHeight="1">
-      <c r="B7" s="183" t="inlineStr">
+      <c r="B7" s="181" t="inlineStr">
         <is>
           <t>Important Note: Please note All data provided as of 2025-26 is unofficial to date as of May 01, 2025</t>
         </is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="8"/>
     <row r="9">
-      <c r="B9" s="180" t="n"/>
+      <c r="B9" s="179" t="n"/>
       <c r="D9" s="59" t="n"/>
       <c r="E9" s="59" t="n"/>
       <c r="F9" s="59" t="n"/>
@@ -3024,23 +3024,23 @@
       <c r="K10" s="59" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="184" t="inlineStr">
+      <c r="B11" s="182" t="inlineStr">
         <is>
           <t>For any additional Inquiries please contact us at institutional.research@keyano.ca or get in touch with the team directly.</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="185" t="n"/>
+      <c r="B12" s="183" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="185" t="n"/>
+      <c r="B13" s="183" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="185" t="n"/>
+      <c r="B14" s="183" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="180" t="n"/>
+      <c r="B15" s="179" t="n"/>
       <c r="D15" s="59" t="n"/>
       <c r="E15" s="59" t="n"/>
       <c r="F15" s="59" t="n"/>
@@ -3061,7 +3061,7 @@
       <c r="K16" s="59" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="B17" s="183" t="inlineStr">
+      <c r="B17" s="181" t="inlineStr">
         <is>
           <t>Instruction: Click on the required data table to move to the table worksheet.</t>
         </is>
@@ -3086,7 +3086,7 @@
       <c r="K18" s="59" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="186" t="n"/>
+      <c r="B19" s="185" t="n"/>
       <c r="D19" s="61" t="n"/>
       <c r="E19" s="61" t="n"/>
       <c r="F19" s="61" t="n"/>
@@ -3107,12 +3107,12 @@
       <c r="K20" s="59" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="181" t="inlineStr">
+      <c r="B21" s="186" t="inlineStr">
         <is>
           <t>Data Tables</t>
         </is>
       </c>
-      <c r="C21" s="181" t="inlineStr">
+      <c r="C21" s="186" t="inlineStr">
         <is>
           <t>Table Summary</t>
         </is>
@@ -3144,7 +3144,7 @@
           <t>Glossary</t>
         </is>
       </c>
-      <c r="C23" s="179" t="inlineStr">
+      <c r="C23" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes a list of Business/Data terms and their definitions.</t>
         </is>
@@ -3164,7 +3164,7 @@
           <t>25-26 FLE by Credential</t>
         </is>
       </c>
-      <c r="C24" s="179" t="inlineStr">
+      <c r="C24" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26 FLE by Credential/Program type</t>
         </is>
@@ -3184,7 +3184,7 @@
           <t>25-26 % Var by School</t>
         </is>
       </c>
-      <c r="C25" s="179" t="inlineStr">
+      <c r="C25" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26 Fall &amp; Winter Unique Headcount Actuals Vs Projections by School, Program Area, Program, and Year of Study</t>
         </is>
@@ -3204,7 +3204,7 @@
           <t>25-26 % Var by School Domestic</t>
         </is>
       </c>
-      <c r="C26" s="179" t="inlineStr">
+      <c r="C26" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes Domestic 2025-26 Fall &amp; Winter Unique Headcount Actuals Vs Projections by School, Program Area, Program, and Year of Study</t>
         </is>
@@ -3224,7 +3224,7 @@
           <t>25-26 % Var by School Intl</t>
         </is>
       </c>
-      <c r="C27" s="179" t="inlineStr">
+      <c r="C27" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes International 2025-26 Fall &amp; Winter Unique Headcount Actuals Vs Projections by School, Program Area, Program, and Year of Study</t>
         </is>
@@ -3244,7 +3244,7 @@
           <t>25-26 APPR Actual to Proj</t>
         </is>
       </c>
-      <c r="C28" s="179" t="inlineStr">
+      <c r="C28" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26 Fall, Winter, and Spring Apprenticeship Unique Head Count Actuals Vs Projections</t>
         </is>
@@ -3264,7 +3264,7 @@
           <t>25-26 TAY HC Actual to Proj</t>
         </is>
       </c>
-      <c r="C29" s="179" t="inlineStr">
+      <c r="C29" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26 LINC and Power Engineering CML Unique Head Count Actuals Vs Projections</t>
         </is>
@@ -3284,7 +3284,7 @@
           <t>25-26 Collaborative Programs</t>
         </is>
       </c>
-      <c r="C30" s="179" t="inlineStr">
+      <c r="C30" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26 Unique Head Count of All Collaborative Programs</t>
         </is>
@@ -3304,7 +3304,7 @@
           <t>25-26 Other Enrolment</t>
         </is>
       </c>
-      <c r="C31" s="179" t="inlineStr">
+      <c r="C31" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26 Unique Head Count of Other Enrolments (IPSE, AUDIT, Dual Credit Apprentice)</t>
         </is>
@@ -3324,7 +3324,7 @@
           <t>25-26 International By Program</t>
         </is>
       </c>
-      <c r="C32" s="179" t="inlineStr">
+      <c r="C32" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26  Unique Headcount &amp; FLE of International by Program</t>
         </is>
@@ -3344,7 +3344,7 @@
           <t>25-26 International By Country</t>
         </is>
       </c>
-      <c r="C33" s="179" t="inlineStr">
+      <c r="C33" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26  Unique Headcount &amp; FLE of International by Country of Citizenship</t>
         </is>
@@ -3364,7 +3364,7 @@
           <t>25-26 Indigenous By Program</t>
         </is>
       </c>
-      <c r="C34" s="179" t="inlineStr">
+      <c r="C34" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26 Unique Headcount &amp; FLE of Indigenous by Program</t>
         </is>
@@ -3384,7 +3384,7 @@
           <t>25-26 UHC&amp;FLE By Country</t>
         </is>
       </c>
-      <c r="C35" s="179" t="inlineStr">
+      <c r="C35" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26  Unique Headcount &amp; FLE of Students by Country of Citizenship</t>
         </is>
@@ -3404,7 +3404,7 @@
           <t>25-26 Age &amp; Gender Dist.</t>
         </is>
       </c>
-      <c r="C36" s="179" t="inlineStr">
+      <c r="C36" s="184" t="inlineStr">
         <is>
           <t>Work sheet includes 2025-26  Unique Headcount &amp; FLE of Students by Age group and Gender</t>
         </is>
@@ -3419,7 +3419,7 @@
       <c r="K36" s="320" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="180" t="n"/>
+      <c r="A37" s="179" t="n"/>
     </row>
     <row r="38"/>
   </sheetData>
@@ -3441,8 +3441,8 @@
     <mergeCell ref="B12:K12"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C30:K30"/>
     <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C30:K30"/>
     <mergeCell ref="A37:L38"/>
     <mergeCell ref="C21:K22"/>
     <mergeCell ref="C33:K33"/>
@@ -3505,12 +3505,12 @@
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B1" s="247" t="inlineStr">
+      <c r="B1" s="229" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="C1" s="237" t="inlineStr">
+      <c r="C1" s="226" t="inlineStr">
         <is>
           <t xml:space="preserve">Program Name </t>
         </is>
@@ -3520,7 +3520,7 @@
           <t>Year of Study</t>
         </is>
       </c>
-      <c r="E1" s="237" t="inlineStr">
+      <c r="E1" s="226" t="inlineStr">
         <is>
           <t>Audit*</t>
         </is>
@@ -3705,7 +3705,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="217" t="inlineStr">
+      <c r="A12" s="257" t="inlineStr">
         <is>
           <t>*Students represented in the table above do not generate FLE and are not reported in our LERS submission to the Government of Alberta.</t>
         </is>
@@ -4245,7 +4245,7 @@
       <c r="C34" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="217" t="n"/>
+      <c r="D34" s="257" t="n"/>
       <c r="H34" s="64" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -7365,17 +7365,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="47.25" customHeight="1">
-      <c r="A1" s="247" t="inlineStr">
+      <c r="A1" s="229" t="inlineStr">
         <is>
           <t>Credential Type</t>
         </is>
       </c>
-      <c r="B1" s="247" t="inlineStr">
+      <c r="B1" s="229" t="inlineStr">
         <is>
           <t xml:space="preserve">Program </t>
         </is>
       </c>
-      <c r="C1" s="247" t="inlineStr">
+      <c r="C1" s="229" t="inlineStr">
         <is>
           <t xml:space="preserve">Specialization </t>
         </is>
@@ -7397,12 +7397,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="207" t="inlineStr">
+      <c r="A2" s="192" t="inlineStr">
         <is>
           <t>Certificate</t>
         </is>
       </c>
-      <c r="B2" s="194" t="inlineStr">
+      <c r="B2" s="195" t="inlineStr">
         <is>
           <t>Apprenticeship</t>
         </is>
@@ -7530,7 +7530,7 @@
     </row>
     <row r="9">
       <c r="A9" s="166" t="n"/>
-      <c r="B9" s="194" t="inlineStr">
+      <c r="B9" s="195" t="inlineStr">
         <is>
           <t>Business Administration Certificate</t>
         </is>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="11">
       <c r="A11" s="166" t="n"/>
-      <c r="B11" s="194" t="inlineStr">
+      <c r="B11" s="195" t="inlineStr">
         <is>
           <t>Applied Early Learning and Child Care Certificate</t>
         </is>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="13">
       <c r="A13" s="166" t="n"/>
-      <c r="B13" s="194" t="inlineStr">
+      <c r="B13" s="195" t="inlineStr">
         <is>
           <t>Computer Systems Technology</t>
         </is>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="15">
       <c r="A15" s="166" t="n"/>
-      <c r="B15" s="194" t="inlineStr">
+      <c r="B15" s="195" t="inlineStr">
         <is>
           <t>Early Learning and Child Care Certificate</t>
         </is>
@@ -7690,7 +7690,7 @@
     </row>
     <row r="17">
       <c r="A17" s="166" t="n"/>
-      <c r="B17" s="194" t="inlineStr">
+      <c r="B17" s="195" t="inlineStr">
         <is>
           <t>Educational Assistant</t>
         </is>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="19">
       <c r="A19" s="166" t="n"/>
-      <c r="B19" s="194" t="inlineStr">
+      <c r="B19" s="195" t="inlineStr">
         <is>
           <t>General Arts</t>
         </is>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="21">
       <c r="A21" s="166" t="n"/>
-      <c r="B21" s="194" t="inlineStr">
+      <c r="B21" s="195" t="inlineStr">
         <is>
           <t>General Science</t>
         </is>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="23">
       <c r="A23" s="166" t="n"/>
-      <c r="B23" s="194" t="inlineStr">
+      <c r="B23" s="195" t="inlineStr">
         <is>
           <t>Health Care Aide</t>
         </is>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="27">
       <c r="A27" s="166" t="n"/>
-      <c r="B27" s="194" t="inlineStr">
+      <c r="B27" s="195" t="inlineStr">
         <is>
           <t>Human Resources Management</t>
         </is>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="29">
       <c r="A29" s="166" t="n"/>
-      <c r="B29" s="194" t="inlineStr">
+      <c r="B29" s="195" t="inlineStr">
         <is>
           <t>Office Administration Certificate</t>
         </is>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="31">
       <c r="A31" s="166" t="n"/>
-      <c r="B31" s="194" t="inlineStr">
+      <c r="B31" s="195" t="inlineStr">
         <is>
           <t>Power Engineering</t>
         </is>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="37">
       <c r="A37" s="166" t="n"/>
-      <c r="B37" s="194" t="inlineStr">
+      <c r="B37" s="195" t="inlineStr">
         <is>
           <t>Pre-Employment Trades</t>
         </is>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="43">
       <c r="A43" s="166" t="n"/>
-      <c r="B43" s="194" t="inlineStr">
+      <c r="B43" s="195" t="inlineStr">
         <is>
           <t>Primary Care Paramedic</t>
         </is>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="45">
       <c r="A45" s="166" t="n"/>
-      <c r="B45" s="194" t="inlineStr">
+      <c r="B45" s="195" t="inlineStr">
         <is>
           <t>Network Security</t>
         </is>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="47">
       <c r="A47" s="166" t="n"/>
-      <c r="B47" s="194" t="inlineStr">
+      <c r="B47" s="195" t="inlineStr">
         <is>
           <t>Network Security</t>
         </is>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="49">
       <c r="A49" s="166" t="n"/>
-      <c r="B49" s="212" t="inlineStr">
+      <c r="B49" s="217" t="inlineStr">
         <is>
           <t>Certificate Total</t>
         </is>
@@ -8325,7 +8325,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="202" t="inlineStr">
+      <c r="A50" s="194" t="inlineStr">
         <is>
           <t>Diploma</t>
         </is>
@@ -8512,7 +8512,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="194" t="inlineStr">
+      <c r="B60" s="195" t="inlineStr">
         <is>
           <t>Business Aviation Diploma</t>
         </is>
@@ -8565,7 +8565,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="194" t="inlineStr">
+      <c r="B63" s="195" t="inlineStr">
         <is>
           <t>Global Supply Chain Diploma</t>
         </is>
@@ -8603,7 +8603,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="194" t="inlineStr">
+      <c r="B65" s="195" t="inlineStr">
         <is>
           <t>Computer Systems Technology Diploma</t>
         </is>
@@ -8642,7 +8642,7 @@
       <c r="I66" s="140" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="194" t="inlineStr">
+      <c r="B67" s="195" t="inlineStr">
         <is>
           <t>Child and Youth Care Diploma</t>
         </is>
@@ -8682,7 +8682,7 @@
       <c r="I68" s="140" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" s="194" t="inlineStr">
+      <c r="B69" s="195" t="inlineStr">
         <is>
           <t>Governance and Civil Studies</t>
         </is>
@@ -8720,7 +8720,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="194" t="inlineStr">
+      <c r="B71" s="195" t="inlineStr">
         <is>
           <t xml:space="preserve">Hospitality and Tourism </t>
         </is>
@@ -8758,7 +8758,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="194" t="inlineStr">
+      <c r="B73" s="195" t="inlineStr">
         <is>
           <t>Hospitality and Management Diploma</t>
         </is>
@@ -9041,7 +9041,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="202" t="inlineStr">
+      <c r="A88" s="194" t="inlineStr">
         <is>
           <t>Non-Credential</t>
         </is>
@@ -9122,7 +9122,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="194" t="inlineStr">
+      <c r="B92" s="195" t="inlineStr">
         <is>
           <t>Upgrading</t>
         </is>
@@ -9547,7 +9547,7 @@
       </c>
     </row>
     <row r="115" ht="28.5" customHeight="1">
-      <c r="A115" s="201" t="inlineStr">
+      <c r="A115" s="202" t="inlineStr">
         <is>
           <t xml:space="preserve">*Cells with red icons represent programs that have variance more than 60% of their FLE projection. Cells with yellow icons represent programs that have variance between 0 % and 60% of their FLE projection. Cells with green icons represent programs that have greater than  0 % variance or more of their FLE projection. </t>
         </is>
@@ -9582,17 +9582,17 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B69:B70"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B37:B42"/>
@@ -9609,13 +9609,13 @@
     <mergeCell ref="B92:B97"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A50:A87"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="B2:B8"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A50:A87"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B2:B8"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="B100:B101"/>
@@ -9650,9 +9650,9 @@
   </sheetPr>
   <dimension ref="A1:AC107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -9667,17 +9667,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="247" t="inlineStr">
+      <c r="A1" s="229" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="B1" s="247" t="inlineStr">
+      <c r="B1" s="229" t="inlineStr">
         <is>
           <t>Program Area</t>
         </is>
       </c>
-      <c r="C1" s="237" t="inlineStr">
+      <c r="C1" s="226" t="inlineStr">
         <is>
           <t xml:space="preserve">Program Name </t>
         </is>
@@ -9687,12 +9687,12 @@
           <t>Program Code</t>
         </is>
       </c>
-      <c r="E1" s="252" t="inlineStr">
+      <c r="E1" s="221" t="inlineStr">
         <is>
           <t>Year of Study</t>
         </is>
       </c>
-      <c r="F1" s="255" t="inlineStr">
+      <c r="F1" s="224" t="inlineStr">
         <is>
           <t>Summer 2025</t>
         </is>
@@ -9702,7 +9702,7 @@
       <c r="I1" s="313" t="n"/>
       <c r="J1" s="313" t="n"/>
       <c r="K1" s="337" t="n"/>
-      <c r="L1" s="236" t="inlineStr">
+      <c r="L1" s="225" t="inlineStr">
         <is>
           <t>Fall 2025</t>
         </is>
@@ -9712,7 +9712,7 @@
       <c r="O1" s="319" t="n"/>
       <c r="P1" s="319" t="n"/>
       <c r="Q1" s="320" t="n"/>
-      <c r="R1" s="236" t="inlineStr">
+      <c r="R1" s="225" t="inlineStr">
         <is>
           <t>Winter 2026</t>
         </is>
@@ -9722,7 +9722,7 @@
       <c r="U1" s="319" t="n"/>
       <c r="V1" s="319" t="n"/>
       <c r="W1" s="320" t="n"/>
-      <c r="X1" s="236" t="inlineStr">
+      <c r="X1" s="225" t="inlineStr">
         <is>
           <t>Spring 2026</t>
         </is>
@@ -9804,7 +9804,7 @@
           <t>Part-time Projection</t>
         </is>
       </c>
-      <c r="S2" s="251" t="inlineStr">
+      <c r="S2" s="220" t="inlineStr">
         <is>
           <t>Part-time Actual</t>
         </is>
@@ -9814,12 +9814,12 @@
           <t>PT % of Variance</t>
         </is>
       </c>
-      <c r="U2" s="251" t="inlineStr">
+      <c r="U2" s="220" t="inlineStr">
         <is>
           <t>Full-time Projection</t>
         </is>
       </c>
-      <c r="V2" s="251" t="inlineStr">
+      <c r="V2" s="220" t="inlineStr">
         <is>
           <t>Full-time Actual</t>
         </is>
@@ -9834,7 +9834,7 @@
           <t>Part-time Projection</t>
         </is>
       </c>
-      <c r="Y2" s="251" t="inlineStr">
+      <c r="Y2" s="220" t="inlineStr">
         <is>
           <t>Part-time Actual</t>
         </is>
@@ -9844,12 +9844,12 @@
           <t>PT % of Variance</t>
         </is>
       </c>
-      <c r="AA2" s="251" t="inlineStr">
+      <c r="AA2" s="220" t="inlineStr">
         <is>
           <t>Full-time Projection</t>
         </is>
       </c>
-      <c r="AB2" s="251" t="inlineStr">
+      <c r="AB2" s="220" t="inlineStr">
         <is>
           <t>Full-time Actual</t>
         </is>
@@ -9866,7 +9866,7 @@
           <t>School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
       </c>
-      <c r="B3" s="239" t="inlineStr">
+      <c r="B3" s="209" t="inlineStr">
         <is>
           <t>Business Studies</t>
         </is>
@@ -9912,7 +9912,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="166" t="n"/>
       <c r="B4" s="166" t="n"/>
-      <c r="C4" s="230" t="inlineStr">
+      <c r="C4" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">Business Administration Diploma-Accounting </t>
         </is>
@@ -9990,7 +9990,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="166" t="n"/>
       <c r="B6" s="166" t="n"/>
-      <c r="C6" s="230" t="inlineStr">
+      <c r="C6" s="212" t="inlineStr">
         <is>
           <t>Business Administration  Diploma-Management</t>
         </is>
@@ -10068,7 +10068,7 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="166" t="n"/>
       <c r="B8" s="166" t="n"/>
-      <c r="C8" s="230" t="inlineStr">
+      <c r="C8" s="212" t="inlineStr">
         <is>
           <t>Business Administration Diploma- Esport  Management</t>
         </is>
@@ -10146,7 +10146,7 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="166" t="n"/>
       <c r="B10" s="166" t="n"/>
-      <c r="C10" s="246" t="inlineStr">
+      <c r="C10" s="240" t="inlineStr">
         <is>
           <t>Business Administration Diploma-Human Resources Management</t>
         </is>
@@ -10224,7 +10224,7 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="166" t="n"/>
       <c r="B12" s="166" t="n"/>
-      <c r="C12" s="230" t="inlineStr">
+      <c r="C12" s="212" t="inlineStr">
         <is>
           <t>Global Supply Chain Management Diploma</t>
         </is>
@@ -10380,7 +10380,7 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="166" t="n"/>
       <c r="B16" s="166" t="n"/>
-      <c r="C16" s="230" t="inlineStr">
+      <c r="C16" s="212" t="inlineStr">
         <is>
           <t>Business Administration Accounting Diploma Co-op</t>
         </is>
@@ -10458,7 +10458,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="166" t="n"/>
       <c r="B18" s="166" t="n"/>
-      <c r="C18" s="230" t="inlineStr">
+      <c r="C18" s="212" t="inlineStr">
         <is>
           <t>Business Administration Management Diploma Co-op</t>
         </is>
@@ -10536,7 +10536,7 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="166" t="n"/>
       <c r="B20" s="166" t="n"/>
-      <c r="C20" s="230" t="inlineStr">
+      <c r="C20" s="212" t="inlineStr">
         <is>
           <t>Business Aviation Diploma (Northern Aviation Operations)</t>
         </is>
@@ -10614,7 +10614,7 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="166" t="n"/>
       <c r="B22" s="166" t="n"/>
-      <c r="C22" s="230" t="inlineStr">
+      <c r="C22" s="212" t="inlineStr">
         <is>
           <t>Business Aviation Diploma (Airline Operations)</t>
         </is>
@@ -10692,7 +10692,7 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="166" t="n"/>
       <c r="B24" s="166" t="n"/>
-      <c r="C24" s="230" t="inlineStr">
+      <c r="C24" s="212" t="inlineStr">
         <is>
           <t>Hospitality and Management Diploma</t>
         </is>
@@ -10852,7 +10852,7 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="166" t="n"/>
       <c r="B28" s="166" t="n"/>
-      <c r="C28" s="210" t="inlineStr">
+      <c r="C28" s="237" t="inlineStr">
         <is>
           <t>Total Business Administration</t>
         </is>
@@ -10886,7 +10886,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="166" t="n"/>
-      <c r="B29" s="245" t="n"/>
+      <c r="B29" s="239" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>English for Academic Purposes</t>
@@ -11092,7 +11092,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="166" t="n"/>
       <c r="B34" s="166" t="n"/>
-      <c r="C34" s="246" t="inlineStr">
+      <c r="C34" s="240" t="inlineStr">
         <is>
           <t>UT: Bachelor of Education - Elementary Education</t>
         </is>
@@ -11170,7 +11170,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="166" t="n"/>
       <c r="B36" s="166" t="n"/>
-      <c r="C36" s="246" t="inlineStr">
+      <c r="C36" s="240" t="inlineStr">
         <is>
           <t>UT: Bachelor of Education - Secondary Education</t>
         </is>
@@ -11248,7 +11248,7 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="166" t="n"/>
       <c r="B38" s="315" t="n"/>
-      <c r="C38" s="209" t="inlineStr">
+      <c r="C38" s="241" t="inlineStr">
         <is>
           <t xml:space="preserve">Total Education and Academic Upgrading </t>
         </is>
@@ -11282,12 +11282,12 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="166" t="n"/>
-      <c r="B39" s="245" t="inlineStr">
+      <c r="B39" s="239" t="inlineStr">
         <is>
           <t>University Studies</t>
         </is>
       </c>
-      <c r="C39" s="230" t="inlineStr">
+      <c r="C39" s="212" t="inlineStr">
         <is>
           <t>Environmental Technology Co-op Diploma</t>
         </is>
@@ -11365,7 +11365,7 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="166" t="n"/>
       <c r="B41" s="166" t="n"/>
-      <c r="C41" s="230" t="inlineStr">
+      <c r="C41" s="212" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma</t>
         </is>
@@ -11443,7 +11443,7 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="166" t="n"/>
       <c r="B43" s="166" t="n"/>
-      <c r="C43" s="230" t="inlineStr">
+      <c r="C43" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Arts</t>
         </is>
@@ -11521,7 +11521,7 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="166" t="n"/>
       <c r="B45" s="166" t="n"/>
-      <c r="C45" s="230" t="inlineStr">
+      <c r="C45" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Commerce</t>
         </is>
@@ -11599,7 +11599,7 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="166" t="n"/>
       <c r="B47" s="166" t="n"/>
-      <c r="C47" s="230" t="inlineStr">
+      <c r="C47" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Engineering</t>
         </is>
@@ -11640,7 +11640,7 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="166" t="n"/>
       <c r="B48" s="166" t="n"/>
-      <c r="C48" s="230" t="inlineStr">
+      <c r="C48" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Science</t>
         </is>
@@ -11718,7 +11718,7 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="166" t="n"/>
       <c r="B50" s="166" t="n"/>
-      <c r="C50" s="230" t="inlineStr">
+      <c r="C50" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Social Work</t>
         </is>
@@ -11839,7 +11839,7 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="166" t="n"/>
       <c r="B53" s="166" t="n"/>
-      <c r="C53" s="230" t="inlineStr">
+      <c r="C53" s="212" t="inlineStr">
         <is>
           <t>Governance and Civil Studies</t>
         </is>
@@ -11917,7 +11917,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="166" t="n"/>
       <c r="B55" s="166" t="n"/>
-      <c r="C55" s="230" t="inlineStr">
+      <c r="C55" s="212" t="inlineStr">
         <is>
           <t>Computer Systems Technology</t>
         </is>
@@ -11958,7 +11958,7 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="166" t="n"/>
       <c r="B56" s="166" t="n"/>
-      <c r="C56" s="230" t="inlineStr">
+      <c r="C56" s="212" t="inlineStr">
         <is>
           <t>Computer Systems Technology Diploma</t>
         </is>
@@ -12036,7 +12036,7 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="166" t="n"/>
       <c r="B58" s="166" t="n"/>
-      <c r="C58" s="230" t="inlineStr">
+      <c r="C58" s="212" t="inlineStr">
         <is>
           <t>General Arts</t>
         </is>
@@ -12077,7 +12077,7 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="166" t="n"/>
       <c r="B59" s="166" t="n"/>
-      <c r="C59" s="230" t="inlineStr">
+      <c r="C59" s="212" t="inlineStr">
         <is>
           <t>General Science</t>
         </is>
@@ -12159,7 +12159,7 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="166" t="n"/>
       <c r="B61" s="166" t="n"/>
-      <c r="C61" s="230" t="inlineStr">
+      <c r="C61" s="212" t="inlineStr">
         <is>
           <t>Network Security</t>
         </is>
@@ -12200,7 +12200,7 @@
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="166" t="n"/>
       <c r="B62" s="166" t="n"/>
-      <c r="C62" s="230" t="inlineStr">
+      <c r="C62" s="212" t="inlineStr">
         <is>
           <t>Applied IT Specialist</t>
         </is>
@@ -12346,7 +12346,7 @@
       <c r="AC65" s="343" t="n"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="212" t="inlineStr">
+      <c r="A66" s="217" t="inlineStr">
         <is>
           <t>Total School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
@@ -12356,10 +12356,10 @@
       <c r="D66" s="319" t="n"/>
       <c r="E66" s="319" t="n"/>
       <c r="F66" s="129" t="n"/>
-      <c r="G66" s="211" t="n"/>
+      <c r="G66" s="252" t="n"/>
       <c r="H66" s="347" t="n"/>
       <c r="I66" s="89" t="n"/>
-      <c r="J66" s="211" t="n"/>
+      <c r="J66" s="252" t="n"/>
       <c r="K66" s="348" t="n"/>
       <c r="L66" s="296" t="n"/>
       <c r="M66" s="10" t="n"/>
@@ -12473,7 +12473,7 @@
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="166" t="n"/>
       <c r="B69" s="166" t="n"/>
-      <c r="C69" s="230" t="inlineStr">
+      <c r="C69" s="212" t="inlineStr">
         <is>
           <t>Early Learning and Child Care Diploma</t>
         </is>
@@ -12551,7 +12551,7 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="166" t="n"/>
       <c r="B71" s="166" t="n"/>
-      <c r="C71" s="230" t="inlineStr">
+      <c r="C71" s="212" t="inlineStr">
         <is>
           <t>Child and Youth Care Diploma</t>
         </is>
@@ -12670,7 +12670,7 @@
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="166" t="n"/>
       <c r="B74" s="315" t="n"/>
-      <c r="C74" s="233" t="inlineStr">
+      <c r="C74" s="245" t="inlineStr">
         <is>
           <t>Total Childhood Studies</t>
         </is>
@@ -12704,12 +12704,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="166" t="n"/>
-      <c r="B75" s="225" t="inlineStr">
+      <c r="B75" s="242" t="inlineStr">
         <is>
           <t>Human Services</t>
         </is>
       </c>
-      <c r="C75" s="230" t="inlineStr">
+      <c r="C75" s="212" t="inlineStr">
         <is>
           <t>Social Work Diploma</t>
         </is>
@@ -12787,7 +12787,7 @@
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="166" t="n"/>
       <c r="B77" s="166" t="n"/>
-      <c r="C77" s="233" t="inlineStr">
+      <c r="C77" s="245" t="inlineStr">
         <is>
           <t>Total Human Services</t>
         </is>
@@ -12795,10 +12795,10 @@
       <c r="D77" s="319" t="n"/>
       <c r="E77" s="320" t="n"/>
       <c r="F77" s="280" t="n"/>
-      <c r="G77" s="209" t="n"/>
+      <c r="G77" s="241" t="n"/>
       <c r="H77" s="343" t="n"/>
       <c r="I77" s="280" t="n"/>
-      <c r="J77" s="209" t="n"/>
+      <c r="J77" s="241" t="n"/>
       <c r="K77" s="344" t="n"/>
       <c r="L77" s="78" t="n"/>
       <c r="M77" s="77" t="n"/>
@@ -12867,7 +12867,7 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="166" t="n"/>
       <c r="B79" s="166" t="n"/>
-      <c r="C79" s="230" t="inlineStr">
+      <c r="C79" s="212" t="inlineStr">
         <is>
           <t>Primary Care Paramedic</t>
         </is>
@@ -12908,7 +12908,7 @@
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="166" t="n"/>
       <c r="B80" s="166" t="n"/>
-      <c r="C80" s="230" t="inlineStr">
+      <c r="C80" s="212" t="inlineStr">
         <is>
           <t>Advanced Care Paramedic</t>
         </is>
@@ -12986,7 +12986,7 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="166" t="n"/>
       <c r="B82" s="315" t="n"/>
-      <c r="C82" s="210" t="inlineStr">
+      <c r="C82" s="237" t="inlineStr">
         <is>
           <t>Total Allied Health</t>
         </is>
@@ -12994,10 +12994,10 @@
       <c r="D82" s="319" t="n"/>
       <c r="E82" s="319" t="n"/>
       <c r="F82" s="280" t="n"/>
-      <c r="G82" s="209" t="n"/>
+      <c r="G82" s="241" t="n"/>
       <c r="H82" s="343" t="n"/>
       <c r="I82" s="280" t="n"/>
-      <c r="J82" s="209" t="n"/>
+      <c r="J82" s="241" t="n"/>
       <c r="K82" s="344" t="n"/>
       <c r="L82" s="78" t="n"/>
       <c r="M82" s="77" t="n"/>
@@ -13025,7 +13025,7 @@
           <t>Nursing</t>
         </is>
       </c>
-      <c r="C83" s="230" t="inlineStr">
+      <c r="C83" s="212" t="inlineStr">
         <is>
           <t>Practical Nurse Diploma</t>
         </is>
@@ -13103,7 +13103,7 @@
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="166" t="n"/>
       <c r="B85" s="166" t="n"/>
-      <c r="C85" s="230" t="inlineStr">
+      <c r="C85" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Nursing</t>
         </is>
@@ -13218,7 +13218,7 @@
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="166" t="n"/>
       <c r="B88" s="166" t="n"/>
-      <c r="C88" s="230" t="inlineStr">
+      <c r="C88" s="212" t="inlineStr">
         <is>
           <t>IEN Bridge to Canadian Nursing</t>
         </is>
@@ -13267,10 +13267,10 @@
       <c r="D89" s="319" t="n"/>
       <c r="E89" s="354" t="n"/>
       <c r="F89" s="280" t="n"/>
-      <c r="G89" s="209" t="n"/>
+      <c r="G89" s="241" t="n"/>
       <c r="H89" s="343" t="n"/>
       <c r="I89" s="280" t="n"/>
-      <c r="J89" s="209" t="n"/>
+      <c r="J89" s="241" t="n"/>
       <c r="K89" s="344" t="n"/>
       <c r="L89" s="78" t="n"/>
       <c r="M89" s="77" t="n"/>
@@ -13292,7 +13292,7 @@
       <c r="AC89" s="343" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="212" t="inlineStr">
+      <c r="A90" s="217" t="inlineStr">
         <is>
           <t>Total School of Health &amp; Human Services</t>
         </is>
@@ -13302,10 +13302,10 @@
       <c r="D90" s="319" t="n"/>
       <c r="E90" s="319" t="n"/>
       <c r="F90" s="129" t="n"/>
-      <c r="G90" s="211" t="n"/>
+      <c r="G90" s="252" t="n"/>
       <c r="H90" s="347" t="n"/>
       <c r="I90" s="89" t="n"/>
-      <c r="J90" s="211" t="n"/>
+      <c r="J90" s="252" t="n"/>
       <c r="K90" s="348" t="n"/>
       <c r="L90" s="296" t="n"/>
       <c r="M90" s="10" t="n"/>
@@ -13332,7 +13332,7 @@
           <t>School of Trades &amp; Technology</t>
         </is>
       </c>
-      <c r="B91" s="220" t="inlineStr">
+      <c r="B91" s="248" t="inlineStr">
         <is>
           <t>Pre-Employment Trades</t>
         </is>
@@ -13505,10 +13505,10 @@
       <c r="D95" s="319" t="n"/>
       <c r="E95" s="354" t="n"/>
       <c r="F95" s="280" t="n"/>
-      <c r="G95" s="209" t="n"/>
+      <c r="G95" s="241" t="n"/>
       <c r="H95" s="343" t="n"/>
       <c r="I95" s="280" t="n"/>
-      <c r="J95" s="209" t="n"/>
+      <c r="J95" s="241" t="n"/>
       <c r="K95" s="344" t="n"/>
       <c r="L95" s="78" t="n"/>
       <c r="M95" s="77" t="n"/>
@@ -13819,7 +13819,7 @@
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="173" t="n"/>
       <c r="B103" s="174" t="n"/>
-      <c r="C103" s="209" t="inlineStr">
+      <c r="C103" s="241" t="inlineStr">
         <is>
           <t>Total Power Engineering</t>
         </is>
@@ -13827,10 +13827,10 @@
       <c r="D103" s="319" t="n"/>
       <c r="E103" s="320" t="n"/>
       <c r="F103" s="280" t="n"/>
-      <c r="G103" s="209" t="n"/>
+      <c r="G103" s="241" t="n"/>
       <c r="H103" s="343" t="n"/>
       <c r="I103" s="280" t="n"/>
-      <c r="J103" s="209" t="n"/>
+      <c r="J103" s="241" t="n"/>
       <c r="K103" s="344" t="n"/>
       <c r="L103" s="78" t="n"/>
       <c r="M103" s="77" t="n"/>
@@ -13852,7 +13852,7 @@
       <c r="AC103" s="343" t="n"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="211" t="inlineStr">
+      <c r="A104" s="252" t="inlineStr">
         <is>
           <t>Total School of Trades and Heavy Industrial</t>
         </is>
@@ -13862,10 +13862,10 @@
       <c r="D104" s="319" t="n"/>
       <c r="E104" s="320" t="n"/>
       <c r="F104" s="129" t="n"/>
-      <c r="G104" s="211" t="n"/>
+      <c r="G104" s="252" t="n"/>
       <c r="H104" s="347" t="n"/>
       <c r="I104" s="89" t="n"/>
-      <c r="J104" s="211" t="n"/>
+      <c r="J104" s="252" t="n"/>
       <c r="K104" s="348" t="n"/>
       <c r="L104" s="296" t="n"/>
       <c r="M104" s="10" t="n"/>
@@ -13887,7 +13887,7 @@
       <c r="AC104" s="349" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A105" s="213" t="inlineStr">
+      <c r="A105" s="253" t="inlineStr">
         <is>
           <t>Total Keyano College</t>
         </is>
@@ -13909,20 +13909,20 @@
       <c r="P105" s="79" t="n"/>
       <c r="Q105" s="359" t="n"/>
       <c r="R105" s="79" t="n"/>
-      <c r="S105" s="247" t="n"/>
+      <c r="S105" s="229" t="n"/>
       <c r="T105" s="358" t="n"/>
-      <c r="U105" s="247" t="n"/>
-      <c r="V105" s="247" t="n"/>
+      <c r="U105" s="229" t="n"/>
+      <c r="V105" s="229" t="n"/>
       <c r="W105" s="359" t="n"/>
       <c r="X105" s="79" t="n"/>
-      <c r="Y105" s="247" t="n"/>
+      <c r="Y105" s="229" t="n"/>
       <c r="Z105" s="358" t="n"/>
-      <c r="AA105" s="247" t="n"/>
-      <c r="AB105" s="247" t="n"/>
+      <c r="AA105" s="229" t="n"/>
+      <c r="AB105" s="229" t="n"/>
       <c r="AC105" s="358" t="n"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="215" t="inlineStr">
+      <c r="A106" s="255" t="inlineStr">
         <is>
           <t>Part-time Actual' and Full-time Actual' shows registrations, total unique headcount may be less than total Part-time Actual and total Full-time Actual due to students registering in more than one program.</t>
         </is>
@@ -13957,7 +13957,7 @@
       <c r="AC106" s="313" t="n"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="217" t="inlineStr">
+      <c r="A107" s="257" t="inlineStr">
         <is>
           <t>Cells with red icons represent programs that have variance more than 60% of their full/part-time projection. Cells with yellow icons represent programs that have variance between 0 % and 60% of their full/part-time projection. Cells with green icons represent programs that have greater than  0 % variance or more of their full/part-time projection.</t>
         </is>
@@ -13978,15 +13978,14 @@
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A107:AC107"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A107:AC107"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B67:B74"/>
     <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="B1:B2"/>
@@ -13996,39 +13995,40 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A105:E105"/>
     <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C101:C102"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A104:E104"/>
     <mergeCell ref="B91:B95"/>
-    <mergeCell ref="A104:E104"/>
     <mergeCell ref="A3:A65"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="B29:B38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C85:C87"/>
     <mergeCell ref="R1:W1"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C85:C87"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C89:E89"/>
+    <mergeCell ref="B96:B102"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C74:E74"/>
-    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="B39:B65"/>
-    <mergeCell ref="C34:C35"/>
     <mergeCell ref="A106:AC106"/>
     <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C103:E103"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="C63">
@@ -16355,9 +16355,9 @@
   </sheetPr>
   <dimension ref="A1:AC107"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -16372,17 +16372,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="247" t="inlineStr">
+      <c r="A1" s="229" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="B1" s="247" t="inlineStr">
+      <c r="B1" s="229" t="inlineStr">
         <is>
           <t>Program Area</t>
         </is>
       </c>
-      <c r="C1" s="237" t="inlineStr">
+      <c r="C1" s="226" t="inlineStr">
         <is>
           <t xml:space="preserve">Program Name </t>
         </is>
@@ -16392,12 +16392,12 @@
           <t>Program Code</t>
         </is>
       </c>
-      <c r="E1" s="252" t="inlineStr">
+      <c r="E1" s="221" t="inlineStr">
         <is>
           <t>Year of Study</t>
         </is>
       </c>
-      <c r="F1" s="255" t="inlineStr">
+      <c r="F1" s="224" t="inlineStr">
         <is>
           <t>Summer 2025</t>
         </is>
@@ -16407,7 +16407,7 @@
       <c r="I1" s="313" t="n"/>
       <c r="J1" s="313" t="n"/>
       <c r="K1" s="337" t="n"/>
-      <c r="L1" s="236" t="inlineStr">
+      <c r="L1" s="225" t="inlineStr">
         <is>
           <t>Fall 2025</t>
         </is>
@@ -16417,7 +16417,7 @@
       <c r="O1" s="319" t="n"/>
       <c r="P1" s="319" t="n"/>
       <c r="Q1" s="320" t="n"/>
-      <c r="R1" s="236" t="inlineStr">
+      <c r="R1" s="225" t="inlineStr">
         <is>
           <t>Winter 2026</t>
         </is>
@@ -16427,7 +16427,7 @@
       <c r="U1" s="319" t="n"/>
       <c r="V1" s="319" t="n"/>
       <c r="W1" s="320" t="n"/>
-      <c r="X1" s="236" t="inlineStr">
+      <c r="X1" s="225" t="inlineStr">
         <is>
           <t>Spring 2026</t>
         </is>
@@ -16509,7 +16509,7 @@
           <t>Part-time Projection</t>
         </is>
       </c>
-      <c r="S2" s="251" t="inlineStr">
+      <c r="S2" s="220" t="inlineStr">
         <is>
           <t>Part-time Actual</t>
         </is>
@@ -16519,12 +16519,12 @@
           <t>PT % of Variance</t>
         </is>
       </c>
-      <c r="U2" s="251" t="inlineStr">
+      <c r="U2" s="220" t="inlineStr">
         <is>
           <t>Full-time Projection</t>
         </is>
       </c>
-      <c r="V2" s="251" t="inlineStr">
+      <c r="V2" s="220" t="inlineStr">
         <is>
           <t>Full-time Actual</t>
         </is>
@@ -16539,7 +16539,7 @@
           <t>Part-time Projection</t>
         </is>
       </c>
-      <c r="Y2" s="251" t="inlineStr">
+      <c r="Y2" s="220" t="inlineStr">
         <is>
           <t>Part-time Actual</t>
         </is>
@@ -16549,12 +16549,12 @@
           <t>PT % of Variance</t>
         </is>
       </c>
-      <c r="AA2" s="251" t="inlineStr">
+      <c r="AA2" s="220" t="inlineStr">
         <is>
           <t>Full-time Projection</t>
         </is>
       </c>
-      <c r="AB2" s="251" t="inlineStr">
+      <c r="AB2" s="220" t="inlineStr">
         <is>
           <t>Full-time Actual</t>
         </is>
@@ -16571,7 +16571,7 @@
           <t>School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
       </c>
-      <c r="B3" s="239" t="inlineStr">
+      <c r="B3" s="209" t="inlineStr">
         <is>
           <t>Business Studies</t>
         </is>
@@ -16595,19 +16595,29 @@
       <c r="I3" s="1" t="n"/>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="340" t="n"/>
-      <c r="L3" s="1" t="n"/>
+      <c r="L3" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="M3" s="148" t="n"/>
       <c r="N3" s="341" t="n"/>
-      <c r="O3" s="88" t="n"/>
+      <c r="O3" s="88" t="n">
+        <v>10</v>
+      </c>
       <c r="P3" s="88" t="n"/>
       <c r="Q3" s="340" t="n"/>
-      <c r="R3" s="1" t="n"/>
+      <c r="R3" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="S3" s="148" t="n"/>
       <c r="T3" s="339" t="n"/>
-      <c r="U3" s="148" t="n"/>
+      <c r="U3" s="148" t="n">
+        <v>10</v>
+      </c>
       <c r="V3" s="98" t="n"/>
       <c r="W3" s="340" t="n"/>
-      <c r="X3" s="1" t="n"/>
+      <c r="X3" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="Y3" s="292" t="n"/>
       <c r="Z3" s="339" t="n"/>
       <c r="AA3" s="148" t="n"/>
@@ -16617,7 +16627,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="166" t="n"/>
       <c r="B4" s="166" t="n"/>
-      <c r="C4" s="230" t="inlineStr">
+      <c r="C4" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">Business Administration Diploma-Accounting </t>
         </is>
@@ -16695,7 +16705,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="166" t="n"/>
       <c r="B6" s="166" t="n"/>
-      <c r="C6" s="230" t="inlineStr">
+      <c r="C6" s="212" t="inlineStr">
         <is>
           <t>Business Administration  Diploma-Management</t>
         </is>
@@ -16773,7 +16783,7 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="166" t="n"/>
       <c r="B8" s="166" t="n"/>
-      <c r="C8" s="230" t="inlineStr">
+      <c r="C8" s="212" t="inlineStr">
         <is>
           <t>Business Administration Diploma- Esport  Management</t>
         </is>
@@ -16851,7 +16861,7 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="166" t="n"/>
       <c r="B10" s="166" t="n"/>
-      <c r="C10" s="246" t="inlineStr">
+      <c r="C10" s="240" t="inlineStr">
         <is>
           <t>Business Administration Diploma-Human Resources Management</t>
         </is>
@@ -16929,7 +16939,7 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="166" t="n"/>
       <c r="B12" s="166" t="n"/>
-      <c r="C12" s="230" t="inlineStr">
+      <c r="C12" s="212" t="inlineStr">
         <is>
           <t>Global Supply Chain Management Diploma</t>
         </is>
@@ -17085,7 +17095,7 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="166" t="n"/>
       <c r="B16" s="166" t="n"/>
-      <c r="C16" s="230" t="inlineStr">
+      <c r="C16" s="212" t="inlineStr">
         <is>
           <t>Business Administration Accounting Diploma Co-op</t>
         </is>
@@ -17163,7 +17173,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="166" t="n"/>
       <c r="B18" s="166" t="n"/>
-      <c r="C18" s="230" t="inlineStr">
+      <c r="C18" s="212" t="inlineStr">
         <is>
           <t>Business Administration Management Diploma Co-op</t>
         </is>
@@ -17241,7 +17251,7 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="166" t="n"/>
       <c r="B20" s="166" t="n"/>
-      <c r="C20" s="230" t="inlineStr">
+      <c r="C20" s="212" t="inlineStr">
         <is>
           <t>Business Aviation Diploma (Northern Aviation Operations)</t>
         </is>
@@ -17319,7 +17329,7 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="166" t="n"/>
       <c r="B22" s="166" t="n"/>
-      <c r="C22" s="230" t="inlineStr">
+      <c r="C22" s="212" t="inlineStr">
         <is>
           <t>Business Aviation Diploma (Airline Operations)</t>
         </is>
@@ -17397,7 +17407,7 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="166" t="n"/>
       <c r="B24" s="166" t="n"/>
-      <c r="C24" s="230" t="inlineStr">
+      <c r="C24" s="212" t="inlineStr">
         <is>
           <t>Hospitality and Management Diploma</t>
         </is>
@@ -17557,7 +17567,7 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="166" t="n"/>
       <c r="B28" s="166" t="n"/>
-      <c r="C28" s="210" t="inlineStr">
+      <c r="C28" s="237" t="inlineStr">
         <is>
           <t>Total Business Administration</t>
         </is>
@@ -17591,7 +17601,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="166" t="n"/>
-      <c r="B29" s="245" t="n"/>
+      <c r="B29" s="239" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>English for Academic Purposes</t>
@@ -17797,7 +17807,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="166" t="n"/>
       <c r="B34" s="166" t="n"/>
-      <c r="C34" s="246" t="inlineStr">
+      <c r="C34" s="240" t="inlineStr">
         <is>
           <t>UT: Bachelor of Education - Elementary Education</t>
         </is>
@@ -17875,7 +17885,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="166" t="n"/>
       <c r="B36" s="166" t="n"/>
-      <c r="C36" s="246" t="inlineStr">
+      <c r="C36" s="240" t="inlineStr">
         <is>
           <t>UT: Bachelor of Education - Secondary Education</t>
         </is>
@@ -17953,7 +17963,7 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="166" t="n"/>
       <c r="B38" s="315" t="n"/>
-      <c r="C38" s="209" t="inlineStr">
+      <c r="C38" s="241" t="inlineStr">
         <is>
           <t xml:space="preserve">Total Education and Academic Upgrading </t>
         </is>
@@ -17987,12 +17997,12 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="166" t="n"/>
-      <c r="B39" s="245" t="inlineStr">
+      <c r="B39" s="239" t="inlineStr">
         <is>
           <t>University Studies</t>
         </is>
       </c>
-      <c r="C39" s="230" t="inlineStr">
+      <c r="C39" s="212" t="inlineStr">
         <is>
           <t>Environmental Technology Co-op Diploma</t>
         </is>
@@ -18070,7 +18080,7 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="166" t="n"/>
       <c r="B41" s="166" t="n"/>
-      <c r="C41" s="230" t="inlineStr">
+      <c r="C41" s="212" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma</t>
         </is>
@@ -18148,7 +18158,7 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="166" t="n"/>
       <c r="B43" s="166" t="n"/>
-      <c r="C43" s="230" t="inlineStr">
+      <c r="C43" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Arts</t>
         </is>
@@ -18226,7 +18236,7 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="166" t="n"/>
       <c r="B45" s="166" t="n"/>
-      <c r="C45" s="230" t="inlineStr">
+      <c r="C45" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Commerce</t>
         </is>
@@ -18304,7 +18314,7 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="166" t="n"/>
       <c r="B47" s="166" t="n"/>
-      <c r="C47" s="230" t="inlineStr">
+      <c r="C47" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Engineering</t>
         </is>
@@ -18345,7 +18355,7 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="166" t="n"/>
       <c r="B48" s="166" t="n"/>
-      <c r="C48" s="230" t="inlineStr">
+      <c r="C48" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Science</t>
         </is>
@@ -18423,7 +18433,7 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="166" t="n"/>
       <c r="B50" s="166" t="n"/>
-      <c r="C50" s="230" t="inlineStr">
+      <c r="C50" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Social Work</t>
         </is>
@@ -18542,7 +18552,7 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="166" t="n"/>
       <c r="B53" s="166" t="n"/>
-      <c r="C53" s="230" t="inlineStr">
+      <c r="C53" s="212" t="inlineStr">
         <is>
           <t>Governance and Civil Studies</t>
         </is>
@@ -18620,7 +18630,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="166" t="n"/>
       <c r="B55" s="166" t="n"/>
-      <c r="C55" s="230" t="inlineStr">
+      <c r="C55" s="212" t="inlineStr">
         <is>
           <t>Computer Systems Technology</t>
         </is>
@@ -18661,7 +18671,7 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="166" t="n"/>
       <c r="B56" s="166" t="n"/>
-      <c r="C56" s="230" t="inlineStr">
+      <c r="C56" s="212" t="inlineStr">
         <is>
           <t>Computer Systems Technology Diploma</t>
         </is>
@@ -18739,7 +18749,7 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="166" t="n"/>
       <c r="B58" s="166" t="n"/>
-      <c r="C58" s="230" t="inlineStr">
+      <c r="C58" s="212" t="inlineStr">
         <is>
           <t>General Arts</t>
         </is>
@@ -18780,7 +18790,7 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="166" t="n"/>
       <c r="B59" s="166" t="n"/>
-      <c r="C59" s="230" t="inlineStr">
+      <c r="C59" s="212" t="inlineStr">
         <is>
           <t>General Science</t>
         </is>
@@ -18862,7 +18872,7 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="166" t="n"/>
       <c r="B61" s="166" t="n"/>
-      <c r="C61" s="230" t="inlineStr">
+      <c r="C61" s="212" t="inlineStr">
         <is>
           <t>Network Security</t>
         </is>
@@ -18903,7 +18913,7 @@
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="166" t="n"/>
       <c r="B62" s="166" t="n"/>
-      <c r="C62" s="230" t="inlineStr">
+      <c r="C62" s="212" t="inlineStr">
         <is>
           <t>Applied IT Specialist</t>
         </is>
@@ -19049,7 +19059,7 @@
       <c r="AC65" s="343" t="n"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="212" t="inlineStr">
+      <c r="A66" s="217" t="inlineStr">
         <is>
           <t>Total School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
@@ -19059,10 +19069,10 @@
       <c r="D66" s="319" t="n"/>
       <c r="E66" s="319" t="n"/>
       <c r="F66" s="129" t="n"/>
-      <c r="G66" s="211" t="n"/>
+      <c r="G66" s="252" t="n"/>
       <c r="H66" s="347" t="n"/>
       <c r="I66" s="89" t="n"/>
-      <c r="J66" s="211" t="n"/>
+      <c r="J66" s="252" t="n"/>
       <c r="K66" s="348" t="n"/>
       <c r="L66" s="296" t="n"/>
       <c r="M66" s="10" t="n"/>
@@ -19176,7 +19186,7 @@
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="166" t="n"/>
       <c r="B69" s="166" t="n"/>
-      <c r="C69" s="230" t="inlineStr">
+      <c r="C69" s="212" t="inlineStr">
         <is>
           <t>Early Learning and Child Care Diploma</t>
         </is>
@@ -19254,7 +19264,7 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="166" t="n"/>
       <c r="B71" s="166" t="n"/>
-      <c r="C71" s="230" t="inlineStr">
+      <c r="C71" s="212" t="inlineStr">
         <is>
           <t>Child and Youth Care Diploma</t>
         </is>
@@ -19373,7 +19383,7 @@
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="166" t="n"/>
       <c r="B74" s="315" t="n"/>
-      <c r="C74" s="233" t="inlineStr">
+      <c r="C74" s="245" t="inlineStr">
         <is>
           <t>Total Childhood Studies</t>
         </is>
@@ -19407,12 +19417,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="166" t="n"/>
-      <c r="B75" s="225" t="inlineStr">
+      <c r="B75" s="242" t="inlineStr">
         <is>
           <t>Human Services</t>
         </is>
       </c>
-      <c r="C75" s="230" t="inlineStr">
+      <c r="C75" s="212" t="inlineStr">
         <is>
           <t>Social Work Diploma</t>
         </is>
@@ -19490,7 +19500,7 @@
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="166" t="n"/>
       <c r="B77" s="166" t="n"/>
-      <c r="C77" s="233" t="inlineStr">
+      <c r="C77" s="245" t="inlineStr">
         <is>
           <t>Total Human Services</t>
         </is>
@@ -19498,10 +19508,10 @@
       <c r="D77" s="319" t="n"/>
       <c r="E77" s="320" t="n"/>
       <c r="F77" s="280" t="n"/>
-      <c r="G77" s="209" t="n"/>
+      <c r="G77" s="241" t="n"/>
       <c r="H77" s="343" t="n"/>
       <c r="I77" s="280" t="n"/>
-      <c r="J77" s="209" t="n"/>
+      <c r="J77" s="241" t="n"/>
       <c r="K77" s="344" t="n"/>
       <c r="L77" s="78" t="n"/>
       <c r="M77" s="77" t="n"/>
@@ -19570,7 +19580,7 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="166" t="n"/>
       <c r="B79" s="166" t="n"/>
-      <c r="C79" s="230" t="inlineStr">
+      <c r="C79" s="212" t="inlineStr">
         <is>
           <t>Primary Care Paramedic</t>
         </is>
@@ -19611,7 +19621,7 @@
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="166" t="n"/>
       <c r="B80" s="166" t="n"/>
-      <c r="C80" s="230" t="inlineStr">
+      <c r="C80" s="212" t="inlineStr">
         <is>
           <t>Advanced Care Paramedic</t>
         </is>
@@ -19689,7 +19699,7 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="166" t="n"/>
       <c r="B82" s="315" t="n"/>
-      <c r="C82" s="210" t="inlineStr">
+      <c r="C82" s="237" t="inlineStr">
         <is>
           <t>Total Allied Health</t>
         </is>
@@ -19697,10 +19707,10 @@
       <c r="D82" s="319" t="n"/>
       <c r="E82" s="319" t="n"/>
       <c r="F82" s="280" t="n"/>
-      <c r="G82" s="209" t="n"/>
+      <c r="G82" s="241" t="n"/>
       <c r="H82" s="343" t="n"/>
       <c r="I82" s="280" t="n"/>
-      <c r="J82" s="209" t="n"/>
+      <c r="J82" s="241" t="n"/>
       <c r="K82" s="344" t="n"/>
       <c r="L82" s="78" t="n"/>
       <c r="M82" s="77" t="n"/>
@@ -19728,7 +19738,7 @@
           <t>Nursing</t>
         </is>
       </c>
-      <c r="C83" s="230" t="inlineStr">
+      <c r="C83" s="212" t="inlineStr">
         <is>
           <t>Practical Nurse Diploma</t>
         </is>
@@ -19806,7 +19816,7 @@
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="166" t="n"/>
       <c r="B85" s="166" t="n"/>
-      <c r="C85" s="230" t="inlineStr">
+      <c r="C85" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Nursing</t>
         </is>
@@ -19921,7 +19931,7 @@
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="166" t="n"/>
       <c r="B88" s="166" t="n"/>
-      <c r="C88" s="230" t="inlineStr">
+      <c r="C88" s="212" t="inlineStr">
         <is>
           <t>IEN Bridge to Canadian Nursing</t>
         </is>
@@ -19970,10 +19980,10 @@
       <c r="D89" s="319" t="n"/>
       <c r="E89" s="354" t="n"/>
       <c r="F89" s="280" t="n"/>
-      <c r="G89" s="209" t="n"/>
+      <c r="G89" s="241" t="n"/>
       <c r="H89" s="343" t="n"/>
       <c r="I89" s="280" t="n"/>
-      <c r="J89" s="209" t="n"/>
+      <c r="J89" s="241" t="n"/>
       <c r="K89" s="344" t="n"/>
       <c r="L89" s="78" t="n"/>
       <c r="M89" s="77" t="n"/>
@@ -19995,7 +20005,7 @@
       <c r="AC89" s="343" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="212" t="inlineStr">
+      <c r="A90" s="217" t="inlineStr">
         <is>
           <t>Total School of Health &amp; Human Services</t>
         </is>
@@ -20005,10 +20015,10 @@
       <c r="D90" s="319" t="n"/>
       <c r="E90" s="319" t="n"/>
       <c r="F90" s="129" t="n"/>
-      <c r="G90" s="211" t="n"/>
+      <c r="G90" s="252" t="n"/>
       <c r="H90" s="347" t="n"/>
       <c r="I90" s="89" t="n"/>
-      <c r="J90" s="211" t="n"/>
+      <c r="J90" s="252" t="n"/>
       <c r="K90" s="348" t="n"/>
       <c r="L90" s="296" t="n"/>
       <c r="M90" s="10" t="n"/>
@@ -20035,7 +20045,7 @@
           <t>School of Trades &amp; Technology</t>
         </is>
       </c>
-      <c r="B91" s="220" t="inlineStr">
+      <c r="B91" s="248" t="inlineStr">
         <is>
           <t>Pre-Employment Trades</t>
         </is>
@@ -20208,10 +20218,10 @@
       <c r="D95" s="319" t="n"/>
       <c r="E95" s="354" t="n"/>
       <c r="F95" s="280" t="n"/>
-      <c r="G95" s="209" t="n"/>
+      <c r="G95" s="241" t="n"/>
       <c r="H95" s="343" t="n"/>
       <c r="I95" s="280" t="n"/>
-      <c r="J95" s="209" t="n"/>
+      <c r="J95" s="241" t="n"/>
       <c r="K95" s="344" t="n"/>
       <c r="L95" s="78" t="n"/>
       <c r="M95" s="77" t="n"/>
@@ -20522,7 +20532,7 @@
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="173" t="n"/>
       <c r="B103" s="174" t="n"/>
-      <c r="C103" s="209" t="inlineStr">
+      <c r="C103" s="241" t="inlineStr">
         <is>
           <t>Total Power Engineering</t>
         </is>
@@ -20530,10 +20540,10 @@
       <c r="D103" s="319" t="n"/>
       <c r="E103" s="320" t="n"/>
       <c r="F103" s="280" t="n"/>
-      <c r="G103" s="209" t="n"/>
+      <c r="G103" s="241" t="n"/>
       <c r="H103" s="343" t="n"/>
       <c r="I103" s="280" t="n"/>
-      <c r="J103" s="209" t="n"/>
+      <c r="J103" s="241" t="n"/>
       <c r="K103" s="344" t="n"/>
       <c r="L103" s="78" t="n"/>
       <c r="M103" s="77" t="n"/>
@@ -20555,7 +20565,7 @@
       <c r="AC103" s="343" t="n"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="211" t="inlineStr">
+      <c r="A104" s="252" t="inlineStr">
         <is>
           <t>Total School of Trades and Heavy Industrial</t>
         </is>
@@ -20565,10 +20575,10 @@
       <c r="D104" s="319" t="n"/>
       <c r="E104" s="320" t="n"/>
       <c r="F104" s="129" t="n"/>
-      <c r="G104" s="211" t="n"/>
+      <c r="G104" s="252" t="n"/>
       <c r="H104" s="347" t="n"/>
       <c r="I104" s="89" t="n"/>
-      <c r="J104" s="211" t="n"/>
+      <c r="J104" s="252" t="n"/>
       <c r="K104" s="348" t="n"/>
       <c r="L104" s="296" t="n"/>
       <c r="M104" s="10" t="n"/>
@@ -20590,7 +20600,7 @@
       <c r="AC104" s="349" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A105" s="213" t="inlineStr">
+      <c r="A105" s="253" t="inlineStr">
         <is>
           <t>Total Keyano College</t>
         </is>
@@ -20612,20 +20622,20 @@
       <c r="P105" s="79" t="n"/>
       <c r="Q105" s="359" t="n"/>
       <c r="R105" s="79" t="n"/>
-      <c r="S105" s="247" t="n"/>
+      <c r="S105" s="229" t="n"/>
       <c r="T105" s="358" t="n"/>
-      <c r="U105" s="247" t="n"/>
-      <c r="V105" s="247" t="n"/>
+      <c r="U105" s="229" t="n"/>
+      <c r="V105" s="229" t="n"/>
       <c r="W105" s="359" t="n"/>
       <c r="X105" s="79" t="n"/>
-      <c r="Y105" s="247" t="n"/>
+      <c r="Y105" s="229" t="n"/>
       <c r="Z105" s="358" t="n"/>
-      <c r="AA105" s="247" t="n"/>
-      <c r="AB105" s="247" t="n"/>
+      <c r="AA105" s="229" t="n"/>
+      <c r="AB105" s="229" t="n"/>
       <c r="AC105" s="358" t="n"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="215" t="inlineStr">
+      <c r="A106" s="255" t="inlineStr">
         <is>
           <t>Part-time Actual' and Full-time Actual' shows registrations, total unique headcount may be less than total Part-time Actual and total Full-time Actual due to students registering in more than one program.</t>
         </is>
@@ -20660,7 +20670,7 @@
       <c r="AC106" s="313" t="n"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="217" t="inlineStr">
+      <c r="A107" s="257" t="inlineStr">
         <is>
           <t>Cells with red icons represent programs that have variance more than 60% of their full/part-time projection. Cells with yellow icons represent programs that have variance between 0 % and 60% of their full/part-time projection. Cells with green icons represent programs that have greater than  0 % variance or more of their full/part-time projection.</t>
         </is>
@@ -20681,9 +20691,9 @@
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A107:AC107"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A107:AC107"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="B67:B74"/>
     <mergeCell ref="C71:C72"/>
@@ -20698,39 +20708,39 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A105:E105"/>
     <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C101:C102"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A104:E104"/>
     <mergeCell ref="B91:B95"/>
-    <mergeCell ref="A104:E104"/>
     <mergeCell ref="A3:A65"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="B29:B38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C85:C87"/>
     <mergeCell ref="R1:W1"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C85:C87"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C89:E89"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="C74:E74"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="B96:B102"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="B39:B65"/>
     <mergeCell ref="A106:AC106"/>
     <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C103:E103"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
@@ -23100,17 +23110,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="247" t="inlineStr">
+      <c r="A1" s="229" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="B1" s="247" t="inlineStr">
+      <c r="B1" s="229" t="inlineStr">
         <is>
           <t>Program Area</t>
         </is>
       </c>
-      <c r="C1" s="237" t="inlineStr">
+      <c r="C1" s="226" t="inlineStr">
         <is>
           <t xml:space="preserve">Program Name </t>
         </is>
@@ -23120,12 +23130,12 @@
           <t>Program Code</t>
         </is>
       </c>
-      <c r="E1" s="252" t="inlineStr">
+      <c r="E1" s="221" t="inlineStr">
         <is>
           <t>Year of Study</t>
         </is>
       </c>
-      <c r="F1" s="255" t="inlineStr">
+      <c r="F1" s="224" t="inlineStr">
         <is>
           <t>Summer 2025</t>
         </is>
@@ -23135,7 +23145,7 @@
       <c r="I1" s="313" t="n"/>
       <c r="J1" s="313" t="n"/>
       <c r="K1" s="337" t="n"/>
-      <c r="L1" s="236" t="inlineStr">
+      <c r="L1" s="225" t="inlineStr">
         <is>
           <t>Fall 2025</t>
         </is>
@@ -23145,7 +23155,7 @@
       <c r="O1" s="319" t="n"/>
       <c r="P1" s="319" t="n"/>
       <c r="Q1" s="320" t="n"/>
-      <c r="R1" s="236" t="inlineStr">
+      <c r="R1" s="225" t="inlineStr">
         <is>
           <t>Winter 2026</t>
         </is>
@@ -23155,7 +23165,7 @@
       <c r="U1" s="319" t="n"/>
       <c r="V1" s="319" t="n"/>
       <c r="W1" s="320" t="n"/>
-      <c r="X1" s="236" t="inlineStr">
+      <c r="X1" s="225" t="inlineStr">
         <is>
           <t>Spring 2026</t>
         </is>
@@ -23237,7 +23247,7 @@
           <t>Part-time Projection</t>
         </is>
       </c>
-      <c r="S2" s="251" t="inlineStr">
+      <c r="S2" s="220" t="inlineStr">
         <is>
           <t>Part-time Actual</t>
         </is>
@@ -23247,12 +23257,12 @@
           <t>PT % of Variance</t>
         </is>
       </c>
-      <c r="U2" s="251" t="inlineStr">
+      <c r="U2" s="220" t="inlineStr">
         <is>
           <t>Full-time Projection</t>
         </is>
       </c>
-      <c r="V2" s="251" t="inlineStr">
+      <c r="V2" s="220" t="inlineStr">
         <is>
           <t>Full-time Actual</t>
         </is>
@@ -23267,7 +23277,7 @@
           <t>Part-time Projection</t>
         </is>
       </c>
-      <c r="Y2" s="251" t="inlineStr">
+      <c r="Y2" s="220" t="inlineStr">
         <is>
           <t>Part-time Actual</t>
         </is>
@@ -23277,12 +23287,12 @@
           <t>PT % of Variance</t>
         </is>
       </c>
-      <c r="AA2" s="251" t="inlineStr">
+      <c r="AA2" s="220" t="inlineStr">
         <is>
           <t>Full-time Projection</t>
         </is>
       </c>
-      <c r="AB2" s="251" t="inlineStr">
+      <c r="AB2" s="220" t="inlineStr">
         <is>
           <t>Full-time Actual</t>
         </is>
@@ -23299,7 +23309,7 @@
           <t>School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
       </c>
-      <c r="B3" s="239" t="inlineStr">
+      <c r="B3" s="209" t="inlineStr">
         <is>
           <t>Business Studies</t>
         </is>
@@ -23345,7 +23355,7 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="166" t="n"/>
       <c r="B4" s="166" t="n"/>
-      <c r="C4" s="230" t="inlineStr">
+      <c r="C4" s="212" t="inlineStr">
         <is>
           <t xml:space="preserve">Business Administration Diploma-Accounting </t>
         </is>
@@ -23423,7 +23433,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="166" t="n"/>
       <c r="B6" s="166" t="n"/>
-      <c r="C6" s="230" t="inlineStr">
+      <c r="C6" s="212" t="inlineStr">
         <is>
           <t>Business Administration  Diploma-Management</t>
         </is>
@@ -23501,7 +23511,7 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="166" t="n"/>
       <c r="B8" s="166" t="n"/>
-      <c r="C8" s="230" t="inlineStr">
+      <c r="C8" s="212" t="inlineStr">
         <is>
           <t>Business Administration Diploma- Esport  Management</t>
         </is>
@@ -23579,7 +23589,7 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="166" t="n"/>
       <c r="B10" s="166" t="n"/>
-      <c r="C10" s="246" t="inlineStr">
+      <c r="C10" s="240" t="inlineStr">
         <is>
           <t>Business Administration Diploma-Human Resources Management</t>
         </is>
@@ -23657,7 +23667,7 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="166" t="n"/>
       <c r="B12" s="166" t="n"/>
-      <c r="C12" s="230" t="inlineStr">
+      <c r="C12" s="212" t="inlineStr">
         <is>
           <t>Global Supply Chain Management Diploma</t>
         </is>
@@ -23813,7 +23823,7 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="166" t="n"/>
       <c r="B16" s="166" t="n"/>
-      <c r="C16" s="230" t="inlineStr">
+      <c r="C16" s="212" t="inlineStr">
         <is>
           <t>Business Administration Accounting Diploma Co-op</t>
         </is>
@@ -23891,7 +23901,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="166" t="n"/>
       <c r="B18" s="166" t="n"/>
-      <c r="C18" s="230" t="inlineStr">
+      <c r="C18" s="212" t="inlineStr">
         <is>
           <t>Business Administration Management Diploma Co-op</t>
         </is>
@@ -23969,7 +23979,7 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="166" t="n"/>
       <c r="B20" s="166" t="n"/>
-      <c r="C20" s="230" t="inlineStr">
+      <c r="C20" s="212" t="inlineStr">
         <is>
           <t>Business Aviation Diploma (Northern Aviation Operations)</t>
         </is>
@@ -24047,7 +24057,7 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="166" t="n"/>
       <c r="B22" s="166" t="n"/>
-      <c r="C22" s="230" t="inlineStr">
+      <c r="C22" s="212" t="inlineStr">
         <is>
           <t>Business Aviation Diploma (Airline Operations)</t>
         </is>
@@ -24125,7 +24135,7 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="166" t="n"/>
       <c r="B24" s="166" t="n"/>
-      <c r="C24" s="230" t="inlineStr">
+      <c r="C24" s="212" t="inlineStr">
         <is>
           <t>Hospitality and Management Diploma</t>
         </is>
@@ -24285,7 +24295,7 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="166" t="n"/>
       <c r="B28" s="166" t="n"/>
-      <c r="C28" s="210" t="inlineStr">
+      <c r="C28" s="237" t="inlineStr">
         <is>
           <t>Total Business Administration</t>
         </is>
@@ -24319,7 +24329,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="166" t="n"/>
-      <c r="B29" s="245" t="n"/>
+      <c r="B29" s="239" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>English for Academic Purposes</t>
@@ -24525,7 +24535,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="166" t="n"/>
       <c r="B34" s="166" t="n"/>
-      <c r="C34" s="246" t="inlineStr">
+      <c r="C34" s="240" t="inlineStr">
         <is>
           <t>UT: Bachelor of Education - Elementary Education</t>
         </is>
@@ -24603,7 +24613,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="166" t="n"/>
       <c r="B36" s="166" t="n"/>
-      <c r="C36" s="246" t="inlineStr">
+      <c r="C36" s="240" t="inlineStr">
         <is>
           <t>UT: Bachelor of Education - Secondary Education</t>
         </is>
@@ -24681,7 +24691,7 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="166" t="n"/>
       <c r="B38" s="315" t="n"/>
-      <c r="C38" s="209" t="inlineStr">
+      <c r="C38" s="241" t="inlineStr">
         <is>
           <t xml:space="preserve">Total Education and Academic Upgrading </t>
         </is>
@@ -24715,12 +24725,12 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="166" t="n"/>
-      <c r="B39" s="245" t="inlineStr">
+      <c r="B39" s="239" t="inlineStr">
         <is>
           <t>University Studies</t>
         </is>
       </c>
-      <c r="C39" s="230" t="inlineStr">
+      <c r="C39" s="212" t="inlineStr">
         <is>
           <t>Environmental Technology Co-op Diploma</t>
         </is>
@@ -24798,7 +24808,7 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="166" t="n"/>
       <c r="B41" s="166" t="n"/>
-      <c r="C41" s="230" t="inlineStr">
+      <c r="C41" s="212" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma</t>
         </is>
@@ -24876,7 +24886,7 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="166" t="n"/>
       <c r="B43" s="166" t="n"/>
-      <c r="C43" s="230" t="inlineStr">
+      <c r="C43" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Arts</t>
         </is>
@@ -24954,7 +24964,7 @@
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="166" t="n"/>
       <c r="B45" s="166" t="n"/>
-      <c r="C45" s="230" t="inlineStr">
+      <c r="C45" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Commerce</t>
         </is>
@@ -25032,7 +25042,7 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="166" t="n"/>
       <c r="B47" s="166" t="n"/>
-      <c r="C47" s="230" t="inlineStr">
+      <c r="C47" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Engineering</t>
         </is>
@@ -25073,7 +25083,7 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="166" t="n"/>
       <c r="B48" s="166" t="n"/>
-      <c r="C48" s="230" t="inlineStr">
+      <c r="C48" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Science</t>
         </is>
@@ -25151,7 +25161,7 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="166" t="n"/>
       <c r="B50" s="166" t="n"/>
-      <c r="C50" s="230" t="inlineStr">
+      <c r="C50" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Social Work</t>
         </is>
@@ -25270,7 +25280,7 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="166" t="n"/>
       <c r="B53" s="166" t="n"/>
-      <c r="C53" s="230" t="inlineStr">
+      <c r="C53" s="212" t="inlineStr">
         <is>
           <t>Governance and Civil Studies</t>
         </is>
@@ -25348,7 +25358,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="166" t="n"/>
       <c r="B55" s="166" t="n"/>
-      <c r="C55" s="230" t="inlineStr">
+      <c r="C55" s="212" t="inlineStr">
         <is>
           <t>Computer Systems Technology</t>
         </is>
@@ -25389,7 +25399,7 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="166" t="n"/>
       <c r="B56" s="166" t="n"/>
-      <c r="C56" s="230" t="inlineStr">
+      <c r="C56" s="212" t="inlineStr">
         <is>
           <t>Computer Systems Technology Diploma</t>
         </is>
@@ -25467,7 +25477,7 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="166" t="n"/>
       <c r="B58" s="166" t="n"/>
-      <c r="C58" s="230" t="inlineStr">
+      <c r="C58" s="212" t="inlineStr">
         <is>
           <t>General Arts</t>
         </is>
@@ -25508,7 +25518,7 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="166" t="n"/>
       <c r="B59" s="166" t="n"/>
-      <c r="C59" s="230" t="inlineStr">
+      <c r="C59" s="212" t="inlineStr">
         <is>
           <t>General Science</t>
         </is>
@@ -25590,7 +25600,7 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="166" t="n"/>
       <c r="B61" s="166" t="n"/>
-      <c r="C61" s="230" t="inlineStr">
+      <c r="C61" s="212" t="inlineStr">
         <is>
           <t>Network Security</t>
         </is>
@@ -25631,7 +25641,7 @@
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="166" t="n"/>
       <c r="B62" s="166" t="n"/>
-      <c r="C62" s="230" t="inlineStr">
+      <c r="C62" s="212" t="inlineStr">
         <is>
           <t>Applied IT Specialist</t>
         </is>
@@ -25777,7 +25787,7 @@
       <c r="AC65" s="343" t="n"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="212" t="inlineStr">
+      <c r="A66" s="217" t="inlineStr">
         <is>
           <t>Total School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
@@ -25787,10 +25797,10 @@
       <c r="D66" s="319" t="n"/>
       <c r="E66" s="319" t="n"/>
       <c r="F66" s="129" t="n"/>
-      <c r="G66" s="211" t="n"/>
+      <c r="G66" s="252" t="n"/>
       <c r="H66" s="347" t="n"/>
       <c r="I66" s="89" t="n"/>
-      <c r="J66" s="211" t="n"/>
+      <c r="J66" s="252" t="n"/>
       <c r="K66" s="348" t="n"/>
       <c r="L66" s="296" t="n"/>
       <c r="M66" s="10" t="n"/>
@@ -25904,7 +25914,7 @@
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="166" t="n"/>
       <c r="B69" s="166" t="n"/>
-      <c r="C69" s="230" t="inlineStr">
+      <c r="C69" s="212" t="inlineStr">
         <is>
           <t>Early Learning and Child Care Diploma</t>
         </is>
@@ -25982,7 +25992,7 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="166" t="n"/>
       <c r="B71" s="166" t="n"/>
-      <c r="C71" s="230" t="inlineStr">
+      <c r="C71" s="212" t="inlineStr">
         <is>
           <t>Child and Youth Care Diploma</t>
         </is>
@@ -26101,7 +26111,7 @@
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="166" t="n"/>
       <c r="B74" s="315" t="n"/>
-      <c r="C74" s="233" t="inlineStr">
+      <c r="C74" s="245" t="inlineStr">
         <is>
           <t>Total Childhood Studies</t>
         </is>
@@ -26135,12 +26145,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="166" t="n"/>
-      <c r="B75" s="225" t="inlineStr">
+      <c r="B75" s="242" t="inlineStr">
         <is>
           <t>Human Services</t>
         </is>
       </c>
-      <c r="C75" s="230" t="inlineStr">
+      <c r="C75" s="212" t="inlineStr">
         <is>
           <t>Social Work Diploma</t>
         </is>
@@ -26218,7 +26228,7 @@
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="166" t="n"/>
       <c r="B77" s="166" t="n"/>
-      <c r="C77" s="233" t="inlineStr">
+      <c r="C77" s="245" t="inlineStr">
         <is>
           <t>Total Human Services</t>
         </is>
@@ -26226,10 +26236,10 @@
       <c r="D77" s="319" t="n"/>
       <c r="E77" s="320" t="n"/>
       <c r="F77" s="280" t="n"/>
-      <c r="G77" s="209" t="n"/>
+      <c r="G77" s="241" t="n"/>
       <c r="H77" s="343" t="n"/>
       <c r="I77" s="280" t="n"/>
-      <c r="J77" s="209" t="n"/>
+      <c r="J77" s="241" t="n"/>
       <c r="K77" s="344" t="n"/>
       <c r="L77" s="78" t="n"/>
       <c r="M77" s="77" t="n"/>
@@ -26298,7 +26308,7 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="166" t="n"/>
       <c r="B79" s="166" t="n"/>
-      <c r="C79" s="230" t="inlineStr">
+      <c r="C79" s="212" t="inlineStr">
         <is>
           <t>Primary Care Paramedic</t>
         </is>
@@ -26339,7 +26349,7 @@
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="166" t="n"/>
       <c r="B80" s="166" t="n"/>
-      <c r="C80" s="230" t="inlineStr">
+      <c r="C80" s="212" t="inlineStr">
         <is>
           <t>Advanced Care Paramedic</t>
         </is>
@@ -26417,7 +26427,7 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="166" t="n"/>
       <c r="B82" s="315" t="n"/>
-      <c r="C82" s="210" t="inlineStr">
+      <c r="C82" s="237" t="inlineStr">
         <is>
           <t>Total Allied Health</t>
         </is>
@@ -26425,10 +26435,10 @@
       <c r="D82" s="319" t="n"/>
       <c r="E82" s="319" t="n"/>
       <c r="F82" s="280" t="n"/>
-      <c r="G82" s="209" t="n"/>
+      <c r="G82" s="241" t="n"/>
       <c r="H82" s="343" t="n"/>
       <c r="I82" s="280" t="n"/>
-      <c r="J82" s="209" t="n"/>
+      <c r="J82" s="241" t="n"/>
       <c r="K82" s="344" t="n"/>
       <c r="L82" s="78" t="n"/>
       <c r="M82" s="77" t="n"/>
@@ -26456,7 +26466,7 @@
           <t>Nursing</t>
         </is>
       </c>
-      <c r="C83" s="230" t="inlineStr">
+      <c r="C83" s="212" t="inlineStr">
         <is>
           <t>Practical Nurse Diploma</t>
         </is>
@@ -26534,7 +26544,7 @@
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="166" t="n"/>
       <c r="B85" s="166" t="n"/>
-      <c r="C85" s="230" t="inlineStr">
+      <c r="C85" s="212" t="inlineStr">
         <is>
           <t>UT: Bachelor of Nursing</t>
         </is>
@@ -26649,7 +26659,7 @@
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="166" t="n"/>
       <c r="B88" s="166" t="n"/>
-      <c r="C88" s="230" t="inlineStr">
+      <c r="C88" s="212" t="inlineStr">
         <is>
           <t>IEN Bridge to Canadian Nursing</t>
         </is>
@@ -26698,10 +26708,10 @@
       <c r="D89" s="319" t="n"/>
       <c r="E89" s="354" t="n"/>
       <c r="F89" s="280" t="n"/>
-      <c r="G89" s="209" t="n"/>
+      <c r="G89" s="241" t="n"/>
       <c r="H89" s="343" t="n"/>
       <c r="I89" s="280" t="n"/>
-      <c r="J89" s="209" t="n"/>
+      <c r="J89" s="241" t="n"/>
       <c r="K89" s="344" t="n"/>
       <c r="L89" s="78" t="n"/>
       <c r="M89" s="77" t="n"/>
@@ -26723,7 +26733,7 @@
       <c r="AC89" s="343" t="n"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="212" t="inlineStr">
+      <c r="A90" s="217" t="inlineStr">
         <is>
           <t>Total School of Health &amp; Human Services</t>
         </is>
@@ -26733,10 +26743,10 @@
       <c r="D90" s="319" t="n"/>
       <c r="E90" s="319" t="n"/>
       <c r="F90" s="129" t="n"/>
-      <c r="G90" s="211" t="n"/>
+      <c r="G90" s="252" t="n"/>
       <c r="H90" s="347" t="n"/>
       <c r="I90" s="89" t="n"/>
-      <c r="J90" s="211" t="n"/>
+      <c r="J90" s="252" t="n"/>
       <c r="K90" s="348" t="n"/>
       <c r="L90" s="296" t="n"/>
       <c r="M90" s="10" t="n"/>
@@ -26763,7 +26773,7 @@
           <t>School of Trades &amp; Technology</t>
         </is>
       </c>
-      <c r="B91" s="220" t="inlineStr">
+      <c r="B91" s="248" t="inlineStr">
         <is>
           <t>Pre-Employment Trades</t>
         </is>
@@ -26936,10 +26946,10 @@
       <c r="D95" s="319" t="n"/>
       <c r="E95" s="354" t="n"/>
       <c r="F95" s="280" t="n"/>
-      <c r="G95" s="209" t="n"/>
+      <c r="G95" s="241" t="n"/>
       <c r="H95" s="343" t="n"/>
       <c r="I95" s="280" t="n"/>
-      <c r="J95" s="209" t="n"/>
+      <c r="J95" s="241" t="n"/>
       <c r="K95" s="344" t="n"/>
       <c r="L95" s="78" t="n"/>
       <c r="M95" s="77" t="n"/>
@@ -27250,7 +27260,7 @@
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="173" t="n"/>
       <c r="B103" s="174" t="n"/>
-      <c r="C103" s="209" t="inlineStr">
+      <c r="C103" s="241" t="inlineStr">
         <is>
           <t>Total Power Engineering</t>
         </is>
@@ -27258,10 +27268,10 @@
       <c r="D103" s="319" t="n"/>
       <c r="E103" s="320" t="n"/>
       <c r="F103" s="280" t="n"/>
-      <c r="G103" s="209" t="n"/>
+      <c r="G103" s="241" t="n"/>
       <c r="H103" s="343" t="n"/>
       <c r="I103" s="280" t="n"/>
-      <c r="J103" s="209" t="n"/>
+      <c r="J103" s="241" t="n"/>
       <c r="K103" s="344" t="n"/>
       <c r="L103" s="78" t="n"/>
       <c r="M103" s="77" t="n"/>
@@ -27283,7 +27293,7 @@
       <c r="AC103" s="343" t="n"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="211" t="inlineStr">
+      <c r="A104" s="252" t="inlineStr">
         <is>
           <t>Total School of Trades and Heavy Industrial</t>
         </is>
@@ -27293,10 +27303,10 @@
       <c r="D104" s="319" t="n"/>
       <c r="E104" s="320" t="n"/>
       <c r="F104" s="129" t="n"/>
-      <c r="G104" s="211" t="n"/>
+      <c r="G104" s="252" t="n"/>
       <c r="H104" s="347" t="n"/>
       <c r="I104" s="89" t="n"/>
-      <c r="J104" s="211" t="n"/>
+      <c r="J104" s="252" t="n"/>
       <c r="K104" s="348" t="n"/>
       <c r="L104" s="296" t="n"/>
       <c r="M104" s="10" t="n"/>
@@ -27318,7 +27328,7 @@
       <c r="AC104" s="349" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A105" s="213" t="inlineStr">
+      <c r="A105" s="253" t="inlineStr">
         <is>
           <t>Total Keyano College</t>
         </is>
@@ -27340,20 +27350,20 @@
       <c r="P105" s="79" t="n"/>
       <c r="Q105" s="359" t="n"/>
       <c r="R105" s="79" t="n"/>
-      <c r="S105" s="247" t="n"/>
+      <c r="S105" s="229" t="n"/>
       <c r="T105" s="358" t="n"/>
-      <c r="U105" s="247" t="n"/>
-      <c r="V105" s="247" t="n"/>
+      <c r="U105" s="229" t="n"/>
+      <c r="V105" s="229" t="n"/>
       <c r="W105" s="359" t="n"/>
       <c r="X105" s="79" t="n"/>
-      <c r="Y105" s="247" t="n"/>
+      <c r="Y105" s="229" t="n"/>
       <c r="Z105" s="358" t="n"/>
-      <c r="AA105" s="247" t="n"/>
-      <c r="AB105" s="247" t="n"/>
+      <c r="AA105" s="229" t="n"/>
+      <c r="AB105" s="229" t="n"/>
       <c r="AC105" s="358" t="n"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="215" t="inlineStr">
+      <c r="A106" s="255" t="inlineStr">
         <is>
           <t>Part-time Actual' and Full-time Actual' shows registrations, total unique headcount may be less than total Part-time Actual and total Full-time Actual due to students registering in more than one program.</t>
         </is>
@@ -27388,7 +27398,7 @@
       <c r="AC106" s="313" t="n"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="217" t="inlineStr">
+      <c r="A107" s="257" t="inlineStr">
         <is>
           <t>Cells with red icons represent programs that have variance more than 60% of their full/part-time projection. Cells with yellow icons represent programs that have variance between 0 % and 60% of their full/part-time projection. Cells with green icons represent programs that have greater than  0 % variance or more of their full/part-time projection.</t>
         </is>
@@ -27409,9 +27419,9 @@
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C95:E95"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A107:AC107"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A107:AC107"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="B67:B74"/>
     <mergeCell ref="C71:C72"/>
@@ -27426,39 +27436,39 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A105:E105"/>
     <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C101:C102"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A104:E104"/>
     <mergeCell ref="B91:B95"/>
-    <mergeCell ref="A104:E104"/>
     <mergeCell ref="A3:A65"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="B29:B38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C85:C87"/>
     <mergeCell ref="R1:W1"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C85:C87"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C89:E89"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="C74:E74"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="B96:B102"/>
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="B39:B65"/>
     <mergeCell ref="A106:AC106"/>
     <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C103:E103"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
@@ -30611,7 +30621,7 @@
       <c r="H24" s="72" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="217" t="inlineStr">
+      <c r="A25" s="257" t="inlineStr">
         <is>
           <t>Cells highlighted in red represent programs that have variance more than 60% of their full/part-time projection. Cells highlighted in yellow represent programs that have variance between 0 % and 60% of their full/part-time projection. Cells highlighted in green represent programs that have greater than  0 % variance or more of their full/part-time projection.</t>
         </is>
@@ -31037,7 +31047,7 @@
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B1" s="247" t="inlineStr">
+      <c r="B1" s="229" t="inlineStr">
         <is>
           <t>School</t>
         </is>
@@ -31093,7 +31103,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D3" s="230" t="inlineStr">
+      <c r="D3" s="212" t="inlineStr">
         <is>
           <t>Language Instruction for Newcomers to Canada</t>
         </is>
@@ -31180,7 +31190,7 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="315" t="n"/>
       <c r="B7" s="315" t="n"/>
-      <c r="C7" s="209" t="inlineStr">
+      <c r="C7" s="241" t="inlineStr">
         <is>
           <t>Total Power Engineering</t>
         </is>
@@ -31237,7 +31247,7 @@
       </c>
     </row>
     <row r="12" ht="27.95" customHeight="1">
-      <c r="A12" s="217" t="inlineStr">
+      <c r="A12" s="257" t="inlineStr">
         <is>
           <t>Cells highlighted in red represent programs that have variance more than 60% of their full/part-time projection. Cells highlighted in yellow represent programs that have variance between 0 % and 60% of their full/part-time projection. Cells highlighted in green represent programs that have greater than  0 % variance or more of their full/part-time projection.</t>
         </is>
@@ -31311,12 +31321,12 @@
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B1" s="247" t="inlineStr">
+      <c r="B1" s="229" t="inlineStr">
         <is>
           <t>School</t>
         </is>
       </c>
-      <c r="C1" s="237" t="inlineStr">
+      <c r="C1" s="226" t="inlineStr">
         <is>
           <t xml:space="preserve">Program Name </t>
         </is>
@@ -31326,7 +31336,7 @@
           <t>Year of Study</t>
         </is>
       </c>
-      <c r="E1" s="256" t="inlineStr">
+      <c r="E1" s="227" t="inlineStr">
         <is>
           <t>Fall 2025</t>
         </is>
@@ -31519,7 +31529,7 @@
       </c>
     </row>
     <row r="7" ht="51" customHeight="1">
-      <c r="A7" s="217" t="inlineStr">
+      <c r="A7" s="257" t="inlineStr">
         <is>
           <t>Enrolment shown for the years of study in which the students main institution in the collaborative program is not Keyano College. 
 Collaborative program enrolments may be included in other tables within the workbook.
@@ -31528,7 +31538,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="217" t="inlineStr">
+      <c r="A8" s="257" t="inlineStr">
         <is>
           <t>Cells highlighted in red represent programs that have variance more than 60% of their full/part-time projection. Cells highlighted in yellow represent programs that have variance between 0 % and 60% of their full/part-time projection. Cells highlighted in green represent programs that have greater than  0 % variance or more of their full/part-time projection.</t>
         </is>
@@ -31536,7 +31546,7 @@
     </row>
     <row r="9" ht="36.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="217" t="inlineStr">
+      <c r="A10" s="257" t="inlineStr">
         <is>
           <t>*Students represented in the table above do not generate FLE and are not reported in our LERS submission to the Government of Alberta.</t>
         </is>
